--- a/backend/import_data/fish_test.xlsx
+++ b/backend/import_data/fish_test.xlsx
@@ -64,7 +64,7 @@
     <t>fish-9567</t>
   </si>
   <si>
-    <t>Bass</t>
+    <t>Balu</t>
   </si>
   <si>
     <t>健康</t>
@@ -79,7 +79,7 @@
     <t>fish-9568</t>
   </si>
   <si>
-    <t>Bluefin</t>
+    <t>Cefue</t>
   </si>
   <si>
     <t>集群</t>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
